--- a/biology/Botanique/Carlina_acaulis/Carlina_acaulis.xlsx
+++ b/biology/Botanique/Carlina_acaulis/Carlina_acaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlina acaulis
 La Carline acaule (Carlina acaulis) est une plante de la famille des Astéracées (ou Composées) du genre Carlina. Le qualificatif « acaule » signifie que le capitule ne possède pas de tige apparente, reposant directement sur la rosette des feuilles.
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carline acaule[1], Caméléon blanc[1], cardabelle[réf. souhaitée], gardabelle[réf. souhaitée].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carline acaule, Caméléon blanc, cardabelle[réf. souhaitée], gardabelle[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carlina acaulis L. subsp. acaulis des pelouses basophiles médioeuropéennes occidentales, mésohydriques
 Carlina acaulis L. subsp. caulescens (Lam.) Schübler &amp; G.Martenss des pelouses basophiles subalpines, alpiennes.</t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue latérale du capitule
@@ -609,7 +627,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : capitule simple
@@ -651,13 +671,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Traditionnellement, elle se conservait longtemps, séchée, pour orner les façades et portes des maisons de montagne.
-Usage alimentaire
-Jeune, cette plante peut se manger à la façon des artichauts.
-Selon une étude ethnobotanique de Françoise et Grégoire Nicollier (1984) sur les usages des plantes dans la vie quotidienne à Bagnes au début du XXe siècle, les fleurs de ce chardon, après avoir été mises dans de l'eau bouillante, était une nourriture donnée aux porcs [2]. 
-Une autre recette citée par les anciens de la commune consistait à y associer des orties et de la «recuite» (la recuite et le nom du sérum résultant de la fabrication du fromage local, le sérac)[2].
 </t>
         </is>
       </c>
@@ -683,12 +701,53 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Usage alimentaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeune, cette plante peut se manger à la façon des artichauts.
+Selon une étude ethnobotanique de Françoise et Grégoire Nicollier (1984) sur les usages des plantes dans la vie quotidienne à Bagnes au début du XXe siècle, les fleurs de ce chardon, après avoir été mises dans de l'eau bouillante, était une nourriture donnée aux porcs . 
+Une autre recette citée par les anciens de la commune consistait à y associer des orties et de la «recuite» (la recuite et le nom du sérum résultant de la fabrication du fromage local, le sérac).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carlina_acaulis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carlina_acaulis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, cette espèce bénéficie de protections, notamment en Alsace et en Bourgogne[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, cette espèce bénéficie de protections, notamment en Alsace et en Bourgogne.
 </t>
         </is>
       </c>
